--- a/biology/Botanique/Anarthrophyllum/Anarthrophyllum.xlsx
+++ b/biology/Botanique/Anarthrophyllum/Anarthrophyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Anarthrophyllum est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, originaire d'Amérique du Sud, qui comprend une quinzaine d'espèces acceptées[2].
-Ce sont des arbustes et arbrisseaux qui se rencontrent dans les formations de broussailles et prairies sèches dans les régions froides des Andes d'Argentine et du Chili, sur sols sablonneux et dans les vallées rocheuses[3].
-Certaines espèces sont utilisées comme plantes fourragères, brise-vent ou pour la production de bois de chauffage[3].
+Anarthrophyllum est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, originaire d'Amérique du Sud, qui comprend une quinzaine d'espèces acceptées.
+Ce sont des arbustes et arbrisseaux qui se rencontrent dans les formations de broussailles et prairies sèches dans les régions froides des Andes d'Argentine et du Chili, sur sols sablonneux et dans les vallées rocheuses.
+Certaines espèces sont utilisées comme plantes fourragères, brise-vent ou pour la production de bois de chauffage.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (19 décembre 2018)[2] 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (19 décembre 2018) 
 Anarthrophyllum andicola (Gillies ex Hook. &amp; Arn.) Phil.
 Anarthrophyllum andicolum (Hook. &amp; Arn.) F.Phil.
 Anarthrophyllum burkartii Soraru
